--- a/xlsx/a69_f21_bUPPachuca.xlsx
+++ b/xlsx/a69_f21_bUPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\UPP Vo. Bo. Uno 2do Tri 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO presupuestales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116161A1-35DD-4ADD-8355-7B2163B78122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFAFE9B-B32B-435E-8F67-0FF524265D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>46582</t>
   </si>
@@ -208,13 +208,19 @@
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_junio_2023/04.estadoeresupuestoegresos-cap-gto.pdf</t>
+    <t>Inversiones Financieras y Otras Provisiones</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/05-informacion-presupuestaria/2023/a_diciembre_2023/11.estadoanaliticopresupuestoegresos.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,37 +297,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,11 +659,11 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.28515625" customWidth="1"/>
+    <col min="5" max="5" width="146.140625" customWidth="1"/>
     <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -662,112 +671,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -797,31 +806,31 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>2023</v>
       </c>
-      <c r="B8" s="4">
-        <v>45017</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45107</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="5">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4">
-        <v>45117</v>
-      </c>
-      <c r="H8" s="4">
-        <v>45117</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="G8" s="5">
+        <v>45301</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45301</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -834,7 +843,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{D0AE098F-FF40-4880-A13C-4D09B3632479}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{14CBAAC0-47C3-46FB-A5AF-3302D1409B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -842,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +866,7 @@
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -943,161 +952,182 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>1000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3">
-        <v>54314234</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-5286081.7700000033</v>
-      </c>
-      <c r="F4" s="3">
-        <f>49028152.23</f>
-        <v>49028152.229999997</v>
-      </c>
-      <c r="G4" s="3">
-        <f>49028152.23</f>
-        <v>49028152.229999997</v>
-      </c>
-      <c r="H4" s="3">
-        <f>49028152.23</f>
-        <v>49028152.229999997</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="D4" s="6">
+        <v>117856569</v>
+      </c>
+      <c r="E4" s="6">
+        <f>F4-D4</f>
+        <v>459632.20999999344</v>
+      </c>
+      <c r="F4" s="6">
+        <v>118316201.20999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>118316201.20999999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>118316201.20999999</v>
+      </c>
+      <c r="I4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>2000</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3">
-        <v>2823718</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1860051.25</v>
-      </c>
-      <c r="F5" s="3">
-        <f>963666.75</f>
-        <v>963666.75</v>
-      </c>
-      <c r="G5" s="3">
-        <f>963666.75</f>
-        <v>963666.75</v>
-      </c>
-      <c r="H5" s="3">
-        <f>941173.79</f>
-        <v>941173.79</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="D5" s="6">
+        <v>3272182</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E9" si="0">F5-D5</f>
+        <v>1298898.0700000003</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4571080.07</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4531581.79</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3910108.42</v>
+      </c>
+      <c r="I5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>3000</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3">
-        <v>8844084</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-3342282.58</v>
-      </c>
-      <c r="F6" s="3">
-        <f>5501801.42</f>
-        <v>5501801.4199999999</v>
-      </c>
-      <c r="G6" s="3">
-        <f>5501801.42</f>
-        <v>5501801.4199999999</v>
-      </c>
-      <c r="H6" s="3">
-        <f>5426191.15</f>
-        <v>5426191.1500000004</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="D6" s="6">
+        <v>17257240</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>2715745.41</v>
+      </c>
+      <c r="F6" s="6">
+        <v>19972985.41</v>
+      </c>
+      <c r="G6" s="6">
+        <v>19912985.41</v>
+      </c>
+      <c r="H6" s="6">
+        <v>19139456.23</v>
+      </c>
+      <c r="I6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>4000</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3">
-        <v>2662966</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-2619646.13</v>
-      </c>
-      <c r="F7" s="3">
-        <f>43319.87</f>
-        <v>43319.87</v>
-      </c>
-      <c r="G7" s="3">
-        <f>43319.87</f>
-        <v>43319.87</v>
-      </c>
-      <c r="H7" s="3">
-        <f>43319.87</f>
-        <v>43319.87</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="D7" s="6">
+        <v>5471442</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>-5041929.3499999996</v>
+      </c>
+      <c r="F7" s="6">
+        <v>429512.65</v>
+      </c>
+      <c r="G7" s="6">
+        <v>405318.83</v>
+      </c>
+      <c r="H7" s="6">
+        <v>405318.83</v>
+      </c>
+      <c r="I7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>5000</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>1172000</v>
       </c>
-      <c r="E8" s="3">
-        <v>-1129112.2</v>
-      </c>
-      <c r="F8" s="3">
-        <f>42887.8</f>
-        <v>42887.8</v>
-      </c>
-      <c r="G8" s="3">
-        <f>42887.8</f>
-        <v>42887.8</v>
-      </c>
-      <c r="H8" s="3">
-        <v>34999</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>110482.01000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1282482.01</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1273002.3899999999</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1215516.3899999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>1694229.95</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1694229.95</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <v>0</v>
       </c>
     </row>
